--- a/teams-and-rosters/CS320-Sp20-102-section-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp20-102-section-roster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Last Name</t>
   </si>
@@ -167,15 +167,6 @@
   </si>
   <si>
     <t>zredcay@ycp.edu</t>
-  </si>
-  <si>
-    <t>Sanjuan</t>
-  </si>
-  <si>
-    <t>Saul</t>
-  </si>
-  <si>
-    <t>ssanjuan1@ycp.edu</t>
   </si>
   <si>
     <t>Trost</t>
@@ -1055,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1232,7 @@
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -1332,30 +1323,13 @@
         <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
